--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +546,40 @@
         <v>0.044652</v>
       </c>
       <c r="I2">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J2">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="O2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q2">
-        <v>0.007439881510666667</v>
+        <v>0.003454095150666667</v>
       </c>
       <c r="R2">
-        <v>0.066958933596</v>
+        <v>0.031086856356</v>
       </c>
       <c r="S2">
-        <v>0.01918363673451312</v>
+        <v>0.007347975832021573</v>
       </c>
       <c r="T2">
-        <v>0.01918363673451311</v>
+        <v>0.007347975832021573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +608,10 @@
         <v>0.044652</v>
       </c>
       <c r="I3">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J3">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>52.897882</v>
       </c>
       <c r="O3">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P3">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q3">
         <v>0.2624440252293333</v>
@@ -635,10 +638,10 @@
         <v>2.361996227064</v>
       </c>
       <c r="S3">
-        <v>0.676708471220234</v>
+        <v>0.5583031938976547</v>
       </c>
       <c r="T3">
-        <v>0.6767084712202338</v>
+        <v>0.5583031938976548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +670,40 @@
         <v>0.044652</v>
       </c>
       <c r="I4">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J4">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N4">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="O4">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P4">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q4">
-        <v>0.0002105391413333333</v>
+        <v>0.01098205025066667</v>
       </c>
       <c r="R4">
-        <v>0.001894852272</v>
+        <v>0.09883845225600001</v>
       </c>
       <c r="S4">
-        <v>0.0005428724099899096</v>
+        <v>0.02336236736627543</v>
       </c>
       <c r="T4">
-        <v>0.0005428724099899094</v>
+        <v>0.02336236736627543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +732,10 @@
         <v>0.044652</v>
       </c>
       <c r="I5">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J5">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N5">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="O5">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P5">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q5">
-        <v>0.01059041252</v>
+        <v>0.01702465160933333</v>
       </c>
       <c r="R5">
-        <v>0.09531371267999998</v>
+        <v>0.153221864484</v>
       </c>
       <c r="S5">
-        <v>0.02730723955227545</v>
+        <v>0.03621693182071834</v>
       </c>
       <c r="T5">
-        <v>0.02730723955227544</v>
+        <v>0.03621693182071834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,25 +779,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.005681333333333333</v>
+        <v>0.014884</v>
       </c>
       <c r="H6">
-        <v>0.017044</v>
+        <v>0.044652</v>
       </c>
       <c r="I6">
-        <v>0.2762577800829876</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J6">
-        <v>0.2762577800829876</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4998576666666667</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N6">
-        <v>1.499573</v>
+        <v>0.223026</v>
       </c>
       <c r="O6">
-        <v>0.02650617333988447</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P6">
-        <v>0.02650617333988446</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q6">
-        <v>0.002839858023555556</v>
+        <v>0.001106506328</v>
       </c>
       <c r="R6">
-        <v>0.025558722212</v>
+        <v>0.009958556952</v>
       </c>
       <c r="S6">
-        <v>0.007322536605371351</v>
+        <v>0.002353896288744006</v>
       </c>
       <c r="T6">
-        <v>0.00732253660537135</v>
+        <v>0.002353896288744006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H7">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I7">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J7">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.63262733333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N7">
-        <v>52.897882</v>
+        <v>0.696203</v>
       </c>
       <c r="O7">
-        <v>0.9350131201380354</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P7">
-        <v>0.9350131201380353</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q7">
-        <v>0.1001768334231111</v>
+        <v>0.002049698987888889</v>
       </c>
       <c r="R7">
-        <v>0.9015915008079999</v>
+        <v>0.018447290891</v>
       </c>
       <c r="S7">
-        <v>0.2583046489178014</v>
+        <v>0.004360371665794938</v>
       </c>
       <c r="T7">
-        <v>0.2583046489178014</v>
+        <v>0.004360371665794939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.026497</v>
+      </c>
+      <c r="I8">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J8">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.005681333333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.017044</v>
-      </c>
-      <c r="I8">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="J8">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.01414533333333333</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="N8">
-        <v>0.042436</v>
+        <v>52.897882</v>
       </c>
       <c r="O8">
-        <v>0.0007500908404267997</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P8">
-        <v>0.0007500908404267996</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q8">
-        <v>8.036435377777779E-05</v>
+        <v>0.1557372421504444</v>
       </c>
       <c r="R8">
-        <v>0.000723279184</v>
+        <v>1.401635179354</v>
       </c>
       <c r="S8">
-        <v>0.0002072184304368902</v>
+        <v>0.3313034069852673</v>
       </c>
       <c r="T8">
-        <v>0.0002072184304368901</v>
+        <v>0.3313034069852674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +965,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.005681333333333333</v>
+        <v>0.008832333333333333</v>
       </c>
       <c r="H9">
-        <v>0.017044</v>
+        <v>0.026497</v>
       </c>
       <c r="I9">
-        <v>0.2762577800829876</v>
+        <v>0.372415634794586</v>
       </c>
       <c r="J9">
-        <v>0.2762577800829876</v>
+        <v>0.3724156347945861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,152 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7115299999999999</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N9">
-        <v>2.13459</v>
+        <v>2.213528</v>
       </c>
       <c r="O9">
-        <v>0.03773061568165336</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P9">
-        <v>0.03773061568165335</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q9">
-        <v>0.004042439106666666</v>
+        <v>0.006516872379555556</v>
       </c>
       <c r="R9">
-        <v>0.03638195196</v>
+        <v>0.058651851416</v>
       </c>
       <c r="S9">
-        <v>0.01042337612937792</v>
+        <v>0.01386349207435725</v>
       </c>
       <c r="T9">
-        <v>0.01042337612937791</v>
+        <v>0.01386349207435725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.026497</v>
+      </c>
+      <c r="I10">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J10">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.431467</v>
+      </c>
+      <c r="O10">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P10">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q10">
+        <v>0.01010262012211111</v>
+      </c>
+      <c r="R10">
+        <v>0.09092358109900001</v>
+      </c>
+      <c r="S10">
+        <v>0.02149153548449283</v>
+      </c>
+      <c r="T10">
+        <v>0.02149153548449283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.026497</v>
+      </c>
+      <c r="I11">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J11">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.223026</v>
+      </c>
+      <c r="O11">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P11">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006566133246666667</v>
+      </c>
+      <c r="R11">
+        <v>0.005909519922</v>
+      </c>
+      <c r="S11">
+        <v>0.001396828584673697</v>
+      </c>
+      <c r="T11">
+        <v>0.001396828584673697</v>
       </c>
     </row>
   </sheetData>
